--- a/question_difficulty_level_result/9.xlsx
+++ b/question_difficulty_level_result/9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,31 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence_probab</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab_percentage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>recommended_level</t>
         </is>
       </c>
@@ -484,7 +509,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"L2":4,"L1":4}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{"L2":0.5,"L1":0.5}</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -511,6 +557,11 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,7 +587,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"L2":7,"L3":7,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{"L2":0.4666666667,"L3":0.4666666667,"L1":0.0666666667}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -563,6 +635,11 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +665,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"L2":8}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{"L2":1.0}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -618,7 +716,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"L1":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{"L1":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -648,7 +767,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"L2":8}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{"L2":1.0}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -678,7 +818,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"L2":8}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{"L2":1.0}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -708,7 +869,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"L2":8}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{"L2":1.0}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -738,7 +920,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"L2":8}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{"L2":1.0}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -768,7 +971,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{"L1":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{"L1":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -798,7 +1022,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"L2":7,"L3":1}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{"L2":0.875,"L3":0.125}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -829,6 +1074,11 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -855,6 +1105,11 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -880,7 +1135,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -907,6 +1183,11 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -932,7 +1213,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L1":2}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{"L2":0.75,"L1":0.25}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -959,6 +1261,11 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,7 +1291,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1014,7 +1342,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.25}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1044,7 +1393,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{"L2":7,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{"L2":0.875,"L1":0.125}</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1074,7 +1444,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>8</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1104,7 +1495,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1134,7 +1546,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1164,7 +1597,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1195,6 +1649,11 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1221,6 +1680,11 @@
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1247,6 +1711,11 @@
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1273,6 +1742,11 @@
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1299,6 +1773,11 @@
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1325,6 +1804,11 @@
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1351,6 +1835,11 @@
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1377,6 +1866,11 @@
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1403,6 +1897,11 @@
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1429,6 +1928,11 @@
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1455,6 +1959,11 @@
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1481,6 +1990,11 @@
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1507,6 +2021,11 @@
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1533,6 +2052,11 @@
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1559,6 +2083,11 @@
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1585,6 +2114,11 @@
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1611,6 +2145,11 @@
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1636,7 +2175,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L1":3}</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{"L2":0.625,"L1":0.375}</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1663,6 +2223,11 @@
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1689,6 +2254,11 @@
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1715,6 +2285,11 @@
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1741,6 +2316,11 @@
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1767,6 +2347,11 @@
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
